--- a/KoefDB.xlsx
+++ b/KoefDB.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>30_HCl-SuAm_3</t>
+          <t>30_HCl-SuAm</t>
         </is>
       </c>
       <c r="B1" t="n">
@@ -3751,7 +3751,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>90_HCl_KF_3</t>
+          <t>90_HCl_KF</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -7078,7 +7078,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2_HCl_3</t>
+          <t>2_HCl</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -10405,7 +10405,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3_H3PO4_3</t>
+          <t>3_H3PO4</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -13732,7 +13732,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>40_H3PO4_Samm_2</t>
+          <t>40_H3PO4_Samm</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -17059,7 +17059,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>100_H3po4_KF_3</t>
+          <t>100_H3po4_KF</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -20386,7 +20386,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>101_H2SO4_KF_3</t>
+          <t>101_H2SO4_KF</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -23713,7 +23713,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>4_H2SO4_3</t>
+          <t>4_H2SO4</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -27040,7 +27040,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>1_HF_3</t>
+          <t>1_HF</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -30367,7 +30367,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>50_HF_K2SO4_3</t>
+          <t>50_HF_K2SO4</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -33694,7 +33694,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>20_HF_Sul_Amm_3</t>
+          <t>20_HF_Sul_Amm</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -37021,7 +37021,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>7_K2SO4_3</t>
+          <t>7_K2SO4</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -40348,7 +40348,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>11_KF_3</t>
+          <t>11_KF</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -43675,7 +43675,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>6_(NH4)2SO4_3</t>
+          <t>6_(NH4)2SO4</t>
         </is>
       </c>
       <c r="B157" t="n">
